--- a/data/input/related_terms.xlsx
+++ b/data/input/related_terms.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myDemo\SIFdemo\sif-essay\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\essay-auto-analysis\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4C198E-F17C-4ED1-9DAF-284408FA33A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028979A9-CFB3-459C-991A-2930F884C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="8120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>Original_Word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,96 +44,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GROSS PRIMARY PRODUCTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROSS PRIMARY PRODUCTIVITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROSS PRIMARY PRODUCTION (GPP)</t>
-  </si>
-  <si>
-    <t>GROSS PRIMARY PRODUCTIVITY (GPP)</t>
-  </si>
-  <si>
-    <t>NET PRIMARY PRODUCTION</t>
-  </si>
-  <si>
-    <t>NPP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLAR-INDUCED CHLOROPHYLL FLUORESCENCE</t>
-  </si>
-  <si>
-    <t>SIF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLAR INDUCED CHLOROPHYLL FLUORESCENCE</t>
-  </si>
-  <si>
-    <t>SOLAR INDUCED FLUORESCENCE</t>
-  </si>
-  <si>
-    <t>SOLAR-INDUCED FLUORESCENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUN INDUCED FLUORESCENCE</t>
-  </si>
-  <si>
-    <t>SUN-INDUCED FLUORESCENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLAR INDUCED FLUORESCENCE (SIF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLAR-INDUCED FLUORESCENCE (SIF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUN INDUCED FLUORESCENCE (SIF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUN-INDUCED FLUORESCENCE (SIF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLAR INDUCED CHLOROPHYLL FLUORESCENCE (SIF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLAR-INDUCED CHLOROPHYLL FLUORESCENCE (SIF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VEGETATION INDEX</t>
-  </si>
-  <si>
-    <t>VEGETATION INDEXES</t>
-  </si>
-  <si>
-    <t>VEGETATION INDEXE</t>
-  </si>
-  <si>
-    <t>VEGETATION INDICES</t>
-  </si>
-  <si>
-    <t>PHOTOSYSTEM-II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHOTOSYSTEM II</t>
+    <t>Gpp</t>
+  </si>
+  <si>
+    <t>Gross Primary Production</t>
+  </si>
+  <si>
+    <t>Gross Primary Productivity</t>
+  </si>
+  <si>
+    <t>Gross Primary Production (Gpp)</t>
+  </si>
+  <si>
+    <t>Gross Primary Productivity (Gpp)</t>
+  </si>
+  <si>
+    <t>Npp</t>
+  </si>
+  <si>
+    <t>Net Primary Production</t>
+  </si>
+  <si>
+    <t>Sif</t>
+  </si>
+  <si>
+    <t>Solar-Induced Chlorophyll Fluorescence</t>
+  </si>
+  <si>
+    <t>Solar Induced Fluorescence</t>
+  </si>
+  <si>
+    <t>Solar-Induced Fluorescence</t>
+  </si>
+  <si>
+    <t>Sun Induced Fluorescence</t>
+  </si>
+  <si>
+    <t>Sun-Induced Fluorescence</t>
+  </si>
+  <si>
+    <t>Solar Induced Chlorophyll Fluorescence</t>
+  </si>
+  <si>
+    <t>Solar Induced Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Solar-Induced Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Sun Induced Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Sun-Induced Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Solar Induced Chlorophyll Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Solar-Induced Chlorophyll Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Vegetation Indexe</t>
+  </si>
+  <si>
+    <t>Vegetation Index</t>
+  </si>
+  <si>
+    <t>Vegetation Indexes</t>
+  </si>
+  <si>
+    <t>Vegetation Indices</t>
+  </si>
+  <si>
+    <t>Photosystem Ii</t>
+  </si>
+  <si>
+    <t>Forest Disturbance</t>
+  </si>
+  <si>
+    <t>Deforestation</t>
+  </si>
+  <si>
+    <t>Degradation</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Forest Degradation</t>
+  </si>
+  <si>
+    <t>Tropic Deforestation</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>Disturbance</t>
+  </si>
+  <si>
+    <t>Tropical Forest</t>
+  </si>
+  <si>
+    <t>Rain Forests</t>
+  </si>
+  <si>
+    <t>Tropical Forests</t>
+  </si>
+  <si>
+    <t>Tropical Rain Forests</t>
+  </si>
+  <si>
+    <t>Photosystem-II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain-Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lidar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiDAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ndvi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -470,17 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,18 +576,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -520,63 +603,63 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -592,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -600,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -608,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -616,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -624,23 +707,23 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -648,15 +731,167 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/related_terms.xlsx
+++ b/data/input/related_terms.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\essay-auto-analysis\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028979A9-CFB3-459C-991A-2930F884C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8ECAC-A999-4E2E-AC82-A23A8111D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>Original_Word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,9 +48,6 @@
     <t>Gpp</t>
   </si>
   <si>
-    <t>Gross Primary Production</t>
-  </si>
-  <si>
     <t>Gross Primary Productivity</t>
   </si>
   <si>
@@ -62,148 +60,351 @@
     <t>Npp</t>
   </si>
   <si>
+    <t>Sif</t>
+  </si>
+  <si>
+    <t>Solar-Induced Chlorophyll Fluorescence</t>
+  </si>
+  <si>
+    <t>Solar Induced Fluorescence</t>
+  </si>
+  <si>
+    <t>Solar-Induced Fluorescence</t>
+  </si>
+  <si>
+    <t>Sun Induced Fluorescence</t>
+  </si>
+  <si>
+    <t>Sun-Induced Fluorescence</t>
+  </si>
+  <si>
+    <t>Solar Induced Chlorophyll Fluorescence</t>
+  </si>
+  <si>
+    <t>Solar Induced Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Solar-Induced Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Sun Induced Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Sun-Induced Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Solar Induced Chlorophyll Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Solar-Induced Chlorophyll Fluorescence (Sif)</t>
+  </si>
+  <si>
+    <t>Vegetation Indexe</t>
+  </si>
+  <si>
+    <t>Vegetation Index</t>
+  </si>
+  <si>
+    <t>Vegetation Indexes</t>
+  </si>
+  <si>
+    <t>Vegetation Indices</t>
+  </si>
+  <si>
+    <t>Forest Disturbance</t>
+  </si>
+  <si>
+    <t>Deforestation</t>
+  </si>
+  <si>
+    <t>Degradation</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Forest Degradation</t>
+  </si>
+  <si>
+    <t>Tropic Deforestation</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>Disturbance</t>
+  </si>
+  <si>
+    <t>Tropical Forest</t>
+  </si>
+  <si>
+    <t>Rain Forests</t>
+  </si>
+  <si>
+    <t>Tropical Forests</t>
+  </si>
+  <si>
+    <t>Tropical Rain Forests</t>
+  </si>
+  <si>
+    <t>Photosystem-II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain-Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lidar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiDAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ndvi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gome-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOME-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photosystem Ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photosystem-Ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co2 Assimilation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oco-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon-Dioxide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf Area Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf-Area Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light-Use Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Use Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Assimilation</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate-Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water-Stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar -Induced Chlorophyll Fluorescence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nqp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uv-B Radiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV-B Radiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized Difference Vegetation Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Photochemical Quenching (Npq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Photochemical Quenching (NPQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gosif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOSIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orbiting Carbon Observatory-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orbiting Carbon Observatory-2 (OCO-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uv Radiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV Radiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absorbed Photosynthetically Active Radiation (Apar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absorbed Photosynthetically Active Radiation (APAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photochemical Reflectance Index (PRI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photochemical Reflectance Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf Area Index (LAI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Primary Production (GPP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Net Primary Production</t>
-  </si>
-  <si>
-    <t>Sif</t>
-  </si>
-  <si>
-    <t>Solar-Induced Chlorophyll Fluorescence</t>
-  </si>
-  <si>
-    <t>Solar Induced Fluorescence</t>
-  </si>
-  <si>
-    <t>Solar-Induced Fluorescence</t>
-  </si>
-  <si>
-    <t>Sun Induced Fluorescence</t>
-  </si>
-  <si>
-    <t>Sun-Induced Fluorescence</t>
-  </si>
-  <si>
-    <t>Solar Induced Chlorophyll Fluorescence</t>
-  </si>
-  <si>
-    <t>Solar Induced Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Solar-Induced Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Sun Induced Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Sun-Induced Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Solar Induced Chlorophyll Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Solar-Induced Chlorophyll Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Vegetation Indexe</t>
-  </si>
-  <si>
-    <t>Vegetation Index</t>
-  </si>
-  <si>
-    <t>Vegetation Indexes</t>
-  </si>
-  <si>
-    <t>Vegetation Indices</t>
-  </si>
-  <si>
-    <t>Photosystem Ii</t>
-  </si>
-  <si>
-    <t>Forest Disturbance</t>
-  </si>
-  <si>
-    <t>Deforestation</t>
-  </si>
-  <si>
-    <t>Degradation</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>Forest Degradation</t>
-  </si>
-  <si>
-    <t>Tropic Deforestation</t>
-  </si>
-  <si>
-    <t>Regeneration</t>
-  </si>
-  <si>
-    <t>Disturbance</t>
-  </si>
-  <si>
-    <t>Tropical Forest</t>
-  </si>
-  <si>
-    <t>Rain Forests</t>
-  </si>
-  <si>
-    <t>Tropical Forests</t>
-  </si>
-  <si>
-    <t>Tropical Rain Forests</t>
-  </si>
-  <si>
-    <t>Photosystem-II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain Forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain-Forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lidar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiDAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ndvi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NDVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net Primary Production (NPP)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,16 +427,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -258,16 +491,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,348 +863,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="47.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3"/>
+    <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
+      <c r="A34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>27</v>
+      <c r="A35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>35</v>
+      <c r="A37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>35</v>
+      <c r="A38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>35</v>
+      <c r="A39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B48" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>35</v>
+    </row>
+    <row r="49" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -899,4 +1340,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99AA55-8C86-48DD-9484-5980A8DB8BD8}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input/related_terms.xlsx
+++ b/data/input/related_terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\essay-auto-analysis\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8ECAC-A999-4E2E-AC82-A23A8111D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790D090-9E13-41DA-9981-936B418E0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>Original_Word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,60 +45,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gpp</t>
-  </si>
-  <si>
     <t>Gross Primary Productivity</t>
   </si>
   <si>
-    <t>Gross Primary Production (Gpp)</t>
-  </si>
-  <si>
-    <t>Gross Primary Productivity (Gpp)</t>
-  </si>
-  <si>
-    <t>Npp</t>
-  </si>
-  <si>
-    <t>Sif</t>
-  </si>
-  <si>
     <t>Solar-Induced Chlorophyll Fluorescence</t>
   </si>
   <si>
     <t>Solar Induced Fluorescence</t>
   </si>
   <si>
-    <t>Solar-Induced Fluorescence</t>
-  </si>
-  <si>
     <t>Sun Induced Fluorescence</t>
   </si>
   <si>
-    <t>Sun-Induced Fluorescence</t>
-  </si>
-  <si>
     <t>Solar Induced Chlorophyll Fluorescence</t>
   </si>
   <si>
-    <t>Solar Induced Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Solar-Induced Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Sun Induced Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Sun-Induced Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Solar Induced Chlorophyll Fluorescence (Sif)</t>
-  </si>
-  <si>
-    <t>Solar-Induced Chlorophyll Fluorescence (Sif)</t>
-  </si>
-  <si>
     <t>Vegetation Indexe</t>
   </si>
   <si>
@@ -151,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gaps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rain Forest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lidar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NDVI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gome-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,22 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Photosystem-Ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Co2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Co2 Assimilation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,27 +164,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Carbon-Dioxide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Leaf Area Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leaf-Area Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Light-Use Efficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Light Use Efficiency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,38 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Climate Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Climate-Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water-Stress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Stress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar -Induced Chlorophyll Fluorescence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nqp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uv-B Radiation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UV-B Radiation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Non-Photochemical Quenching (Npq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Non-Photochemical Quenching (NPQ)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,14 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Absorbed Photosynthetically Active Radiation (Apar)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Absorbed Photosynthetically Active Radiation (APAR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Photochemical Reflectance Index (PRI)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +266,146 @@
   </si>
   <si>
     <t>Net Primary Production (NPP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar  Induced Chlorophyll Fluorescence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uv B Radiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Primary Production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sifyield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIFyield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Induced Chlorophyll Fluorescence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Use Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Use Efficiency (LUE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light-Use Efficiency (LUE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar Induced Fluorescence (SIF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Induced Fluorescence (SIF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Induced Chlorophyll Fluorescence (SIF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar Induced Chlorophyll Fluorescence (SIF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non Photochemical Quenching (NPQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nirv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indexes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Primary Productivity (GPP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sif Yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhanced Vegetation Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhanced Vegetation Index (EVI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized Difference Vegetation Index (NDVI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaves</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -495,28 +496,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -550,11 +529,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,13 +584,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -880,459 +893,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>90</v>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>90</v>
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>92</v>
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="B44" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>65</v>
+      <c r="B46" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="49" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>64</v>
+      <c r="B50" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>68</v>
+      <c r="A53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1358,114 +1347,114 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/related_terms.xlsx
+++ b/data/input/related_terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\essay-auto-analysis\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790D090-9E13-41DA-9981-936B418E0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B5BD48-553D-49C8-A798-4CA8A9159F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>Original_Word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>Leaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TROPOMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tropomi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIRv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,16 +888,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="3"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -1133,194 +1145,202 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>87</v>
+      <c r="B37" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="49" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>63</v>
       </c>
     </row>

--- a/data/input/related_terms.xlsx
+++ b/data/input/related_terms.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\essay-auto-analysis\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A93965E-4BC8-4B6D-8CCB-D128E918EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11208"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="159">
   <si>
     <t>Original_Word</t>
   </si>
@@ -104,9 +110,6 @@
     <t>Vegetation Indexe</t>
   </si>
   <si>
-    <t>Vegetation Index</t>
-  </si>
-  <si>
     <t>Vegetation Indexes</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
   </si>
   <si>
     <t>Modis</t>
-  </si>
-  <si>
-    <t>MODIS</t>
   </si>
   <si>
     <t>Tropomi</t>
@@ -223,7 +223,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CO</t>
     </r>
@@ -233,7 +233,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -250,7 +250,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CO</t>
     </r>
@@ -260,7 +260,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -269,7 +269,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> Assimilation</t>
     </r>
@@ -339,19 +339,285 @@
   </si>
   <si>
     <t>Tropical Rain Forests</t>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paddy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paddy Rice</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paddy Yield</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice Yield</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paddy Rice Yield</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Sensing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Sensing (RS)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unmanned Aerial Vehicle (UAV)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Earth Engine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Earth Engine (GEE)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice Production</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetation Index (VI)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield Estimation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield Prediction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice Yield Prediction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice Yield Estimation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paddy Rice Yield Estimation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetation Index</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop Yield Estimation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop Yield Prediction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthetic Aperture Radar (SAR)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest (RF)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Assimilation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assimilation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield Forecast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield Forecasting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop Yield Forecast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop Yield Forecasting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice Yield Forecast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice Yield Forecasting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spectral Indices</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spectral Index</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest Classifier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Short Term Memory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lstm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Short Term Memory (LSTM)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convolutional Neural Network</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convolutional Neural Network (CNN)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Neural Network</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Neural Network (ANN)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop Modeling</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop Model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthetic Aperture Radar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unmanned Aerial Vehicle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aboveground Biomass (AGB)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aboveground Biomass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modis Evi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIS EVI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convolutional Long Short Term Memory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-LSTM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetation Health Indices</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetation Health Index (VHI)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VHI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetation Health Index</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,181 +629,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,194 +678,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -828,251 +770,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1107,61 +807,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1419,29 +1075,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.66666666666667" style="2"/>
+    <col min="2" max="2" width="48.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.66666666666667" style="2"/>
+    <col min="5" max="5" width="19.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1521,7 +1177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1529,7 +1185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1561,7 +1217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1577,7 +1233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1593,7 +1249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1601,7 +1257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -1617,406 +1273,893 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="B26" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="B32" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
+      <c r="B33" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="B37" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B41" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B45" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="B48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B49" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B51" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B53" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B55" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" ht="19.2" spans="1:2">
-      <c r="A48" s="4" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B57" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" ht="19.2" spans="1:2">
-      <c r="A49" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" ht="19.2" spans="1:2">
-      <c r="A50" s="7" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B61" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B62" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>76</v>
+      <c r="B63" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>